--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5856bc95d9b946b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R2ceab80820744539"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R2ceab80820744539"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd54016f3479d4188"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rd54016f3479d4188"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rf79ff6e974ae43d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rf79ff6e974ae43d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R0120d025f9d74929"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R0120d025f9d74929"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R268ead92219c440c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R268ead92219c440c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R1fae38755c174a6f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R1fae38755c174a6f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rb2cfe0431388443a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rb2cfe0431388443a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R8faff7d4f156484e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R8faff7d4f156484e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R231c25b45eec413c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R231c25b45eec413c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7df9f4359c8b423b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R7df9f4359c8b423b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5799017a427a40a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="R5799017a427a40a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Re36d8a14ac144916"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/057_JsonArrayWithStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Re36d8a14ac144916"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices with Styling" sheetId="1" r:id="Rcd192840f51940e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
